--- a/dd.xlsx
+++ b/dd.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -493,32 +493,34 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44305.375</v>
+        <v>44296.375</v>
       </c>
       <c r="B2" t="n">
-        <v>10.8</v>
+        <v>250</v>
       </c>
       <c r="C2" t="n">
-        <v>11</v>
+        <v>251</v>
       </c>
       <c r="D2" t="n">
-        <v>9.9</v>
+        <v>223</v>
       </c>
       <c r="E2" t="n">
-        <v>9.970000000000001</v>
+        <v>230</v>
       </c>
       <c r="F2" t="n">
-        <v>58962305857.27283</v>
+        <v>880018647.4663765</v>
       </c>
       <c r="G2" t="n">
-        <v>0.5499999999999998</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
+        <v>11.2</v>
+      </c>
+      <c r="H2" t="n">
+        <v>242.2</v>
+      </c>
       <c r="I2" t="n">
-        <v>1</v>
+        <v>0.9491284062758052</v>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.9491284062758052</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -526,69 +528,69 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44306.375</v>
+        <v>44297.375</v>
       </c>
       <c r="B3" t="n">
-        <v>9.970000000000001</v>
+        <v>230</v>
       </c>
       <c r="C3" t="n">
-        <v>10.3</v>
+        <v>230</v>
       </c>
       <c r="D3" t="n">
-        <v>8.58</v>
+        <v>191</v>
       </c>
       <c r="E3" t="n">
-        <v>9.880000000000001</v>
+        <v>218</v>
       </c>
       <c r="F3" t="n">
-        <v>132245675466.4211</v>
+        <v>945631317.5557177</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8600000000000003</v>
+        <v>15.6</v>
       </c>
       <c r="H3" t="n">
-        <v>10.52</v>
+        <v>218.3</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>0.9981257443884562</v>
       </c>
       <c r="J3" t="n">
-        <v>1</v>
+        <v>0.9473494970342672</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.1874255611543753</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44307.375</v>
+        <v>44298.375</v>
       </c>
       <c r="B4" t="n">
-        <v>9.890000000000001</v>
+        <v>218</v>
       </c>
       <c r="C4" t="n">
-        <v>10.1</v>
+        <v>245</v>
       </c>
       <c r="D4" t="n">
-        <v>9.5</v>
+        <v>211</v>
       </c>
       <c r="E4" t="n">
-        <v>9.58</v>
+        <v>225</v>
       </c>
       <c r="F4" t="n">
-        <v>44245953671.25238</v>
+        <v>1649823059.264877</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2999999999999998</v>
+        <v>13.6</v>
       </c>
       <c r="H4" t="n">
-        <v>10.75</v>
+        <v>224</v>
       </c>
       <c r="I4" t="n">
-        <v>1</v>
+        <v>1.003964285714286</v>
       </c>
       <c r="J4" t="n">
-        <v>1</v>
+        <v>0.951105061111796</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -596,142 +598,632 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44308.375</v>
+        <v>44299.375</v>
       </c>
       <c r="B5" t="n">
-        <v>9.58</v>
+        <v>225</v>
       </c>
       <c r="C5" t="n">
-        <v>9.68</v>
+        <v>227</v>
       </c>
       <c r="D5" t="n">
-        <v>6.71</v>
+        <v>203</v>
       </c>
       <c r="E5" t="n">
-        <v>7.28</v>
+        <v>212</v>
       </c>
       <c r="F5" t="n">
-        <v>143741295391.1859</v>
+        <v>791921297.2318698</v>
       </c>
       <c r="G5" t="n">
-        <v>1.485</v>
+        <v>9.600000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>9.879999999999999</v>
+        <v>219</v>
       </c>
       <c r="I5" t="n">
-        <v>1</v>
+        <v>0.9675365296803653</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0.9202288901895389</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>3.24634703196347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44309.375</v>
+        <v>44300.375</v>
       </c>
       <c r="B6" t="n">
-        <v>7.27</v>
+        <v>212</v>
       </c>
       <c r="C6" t="n">
-        <v>8.630000000000001</v>
+        <v>213</v>
       </c>
       <c r="D6" t="n">
-        <v>4.9</v>
+        <v>177</v>
       </c>
       <c r="E6" t="n">
-        <v>8.6</v>
+        <v>189</v>
       </c>
       <c r="F6" t="n">
-        <v>498358182623.1262</v>
+        <v>1440100947.838826</v>
       </c>
       <c r="G6" t="n">
-        <v>1.865</v>
+        <v>14.4</v>
       </c>
       <c r="H6" t="n">
-        <v>8.754999999999999</v>
+        <v>201.8</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>0.9360708622398415</v>
       </c>
       <c r="J6" t="n">
-        <v>1</v>
+        <v>0.861399450697734</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.431724641355652</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44310.375</v>
+        <v>44301.375</v>
       </c>
       <c r="B7" t="n">
-        <v>8.619999999999999</v>
+        <v>189</v>
       </c>
       <c r="C7" t="n">
-        <v>9.42</v>
+        <v>208</v>
       </c>
       <c r="D7" t="n">
-        <v>7.65</v>
+        <v>183</v>
       </c>
       <c r="E7" t="n">
-        <v>8.119999999999999</v>
+        <v>199</v>
       </c>
       <c r="F7" t="n">
-        <v>350293773196.5637</v>
+        <v>1216359825.074071</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8849999999999998</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>10.485</v>
+        <v>192.9</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>1.031122602384655</v>
       </c>
       <c r="J7" t="n">
-        <v>1</v>
+        <v>0.8882084432961601</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>6.61300421870459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
+        <v>44302.375</v>
+      </c>
+      <c r="B8" t="n">
+        <v>198</v>
+      </c>
+      <c r="C8" t="n">
+        <v>199</v>
+      </c>
+      <c r="D8" t="n">
+        <v>166</v>
+      </c>
+      <c r="E8" t="n">
+        <v>178</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1376645257.25831</v>
+      </c>
+      <c r="G8" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>188.7</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0.9427962374138846</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0.8373995783788635</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.95509175400837</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>44303.375</v>
+      </c>
+      <c r="B9" t="n">
+        <v>178</v>
+      </c>
+      <c r="C9" t="n">
+        <v>195</v>
+      </c>
+      <c r="D9" t="n">
+        <v>157</v>
+      </c>
+      <c r="E9" t="n">
+        <v>181</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1723906134.99301</v>
+      </c>
+      <c r="G9" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>176.8</v>
+      </c>
+      <c r="I9" t="n">
+        <v>1.023255656108597</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.8568738549991266</v>
+      </c>
+      <c r="K9" t="n">
+        <v>9.907549645726593</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>44304.375</v>
+      </c>
+      <c r="B10" t="n">
+        <v>182</v>
+      </c>
+      <c r="C10" t="n">
+        <v>183</v>
+      </c>
+      <c r="D10" t="n">
+        <v>147</v>
+      </c>
+      <c r="E10" t="n">
+        <v>161</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1332635080.709408</v>
+      </c>
+      <c r="G10" t="n">
+        <v>14.4</v>
+      </c>
+      <c r="H10" t="n">
+        <v>171.8</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0.9366362048894062</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.8025790756153374</v>
+      </c>
+      <c r="K10" t="n">
+        <v>15.61614921098611</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>44305.375</v>
+      </c>
+      <c r="B11" t="n">
+        <v>161</v>
+      </c>
+      <c r="C11" t="n">
+        <v>174</v>
+      </c>
+      <c r="D11" t="n">
+        <v>147</v>
+      </c>
+      <c r="E11" t="n">
+        <v>151</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1188885991.971054</v>
+      </c>
+      <c r="G11" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H11" t="n">
+        <v>160.7</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0.9391390790292472</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.7537333739215325</v>
+      </c>
+      <c r="K11" t="n">
+        <v>20.75182808506408</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>44306.375</v>
+      </c>
+      <c r="B12" t="n">
+        <v>151</v>
+      </c>
+      <c r="C12" t="n">
+        <v>160</v>
+      </c>
+      <c r="D12" t="n">
+        <v>123</v>
+      </c>
+      <c r="E12" t="n">
+        <v>143</v>
+      </c>
+      <c r="F12" t="n">
+        <v>2082048832.188677</v>
+      </c>
+      <c r="G12" t="n">
+        <v>14.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>145.3</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0.9836706813489332</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0.7414254214808241</v>
+      </c>
+      <c r="K12" t="n">
+        <v>22.04589673677759</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>44307.375</v>
+      </c>
+      <c r="B13" t="n">
+        <v>143</v>
+      </c>
+      <c r="C13" t="n">
+        <v>175</v>
+      </c>
+      <c r="D13" t="n">
+        <v>143</v>
+      </c>
+      <c r="E13" t="n">
+        <v>163</v>
+      </c>
+      <c r="F13" t="n">
+        <v>3315643941.095468</v>
+      </c>
+      <c r="G13" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="H13" t="n">
+        <v>152.6</v>
+      </c>
+      <c r="I13" t="n">
+        <v>1.067652031454784</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0.7915843574162212</v>
+      </c>
+      <c r="K13" t="n">
+        <v>16.77214329078459</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>44308.375</v>
+      </c>
+      <c r="B14" t="n">
+        <v>164</v>
+      </c>
+      <c r="C14" t="n">
+        <v>174</v>
+      </c>
+      <c r="D14" t="n">
+        <v>121</v>
+      </c>
+      <c r="E14" t="n">
+        <v>129</v>
+      </c>
+      <c r="F14" t="n">
+        <v>2205572103.376428</v>
+      </c>
+      <c r="G14" t="n">
+        <v>21.2</v>
+      </c>
+      <c r="H14" t="n">
+        <v>154.1</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0.836618754055808</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0.6622543188316264</v>
+      </c>
+      <c r="K14" t="n">
+        <v>30.37001421720088</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>44309.375</v>
+      </c>
+      <c r="B15" t="n">
+        <v>129</v>
+      </c>
+      <c r="C15" t="n">
+        <v>136</v>
+      </c>
+      <c r="D15" t="n">
+        <v>80.09999999999999</v>
+      </c>
+      <c r="E15" t="n">
+        <v>123</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3472469826.072779</v>
+      </c>
+      <c r="G15" t="n">
+        <v>22.36</v>
+      </c>
+      <c r="H15" t="n">
+        <v>116.43</v>
+      </c>
+      <c r="I15" t="n">
+        <v>1.055928755475393</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0.6992933786920835</v>
+      </c>
+      <c r="K15" t="n">
+        <v>26.47569576859961</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>44310.375</v>
+      </c>
+      <c r="B16" t="n">
+        <v>123</v>
+      </c>
+      <c r="C16" t="n">
+        <v>129</v>
+      </c>
+      <c r="D16" t="n">
+        <v>110</v>
+      </c>
+      <c r="E16" t="n">
+        <v>118</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2045305832.059635</v>
+      </c>
+      <c r="G16" t="n">
+        <v>7.600000000000001</v>
+      </c>
+      <c r="H16" t="n">
+        <v>120.9</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.9755132340777503</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0.6821699454170713</v>
+      </c>
+      <c r="K16" t="n">
+        <v>28.27606819591019</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
         <v>44311.375</v>
       </c>
-      <c r="B8" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="C8" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.01</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="F8" t="n">
-        <v>73569585400.4304</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0.1900000000000004</v>
-      </c>
-      <c r="H8" t="n">
-        <v>9.004999999999999</v>
-      </c>
-      <c r="I8" t="n">
-        <v>1</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0</v>
+      <c r="B17" t="n">
+        <v>119</v>
+      </c>
+      <c r="C17" t="n">
+        <v>143</v>
+      </c>
+      <c r="D17" t="n">
+        <v>116</v>
+      </c>
+      <c r="E17" t="n">
+        <v>125</v>
+      </c>
+      <c r="F17" t="n">
+        <v>3033888914.977119</v>
+      </c>
+      <c r="G17" t="n">
+        <v>10.8</v>
+      </c>
+      <c r="H17" t="n">
+        <v>125.3</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.9971057462090982</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0.6801955724665086</v>
+      </c>
+      <c r="K17" t="n">
+        <v>28.48365545743256</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>44312.375</v>
+      </c>
+      <c r="B18" t="n">
+        <v>125</v>
+      </c>
+      <c r="C18" t="n">
+        <v>152</v>
+      </c>
+      <c r="D18" t="n">
+        <v>124</v>
+      </c>
+      <c r="E18" t="n">
+        <v>149</v>
+      </c>
+      <c r="F18" t="n">
+        <v>2360082068.445391</v>
+      </c>
+      <c r="G18" t="n">
+        <v>11.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>132.8</v>
+      </c>
+      <c r="I18" t="n">
+        <v>1.121487951807229</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0.7628311393938103</v>
+      </c>
+      <c r="K18" t="n">
+        <v>19.79528123821595</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>44313.375</v>
+      </c>
+      <c r="B19" t="n">
+        <v>149</v>
+      </c>
+      <c r="C19" t="n">
+        <v>163</v>
+      </c>
+      <c r="D19" t="n">
+        <v>145</v>
+      </c>
+      <c r="E19" t="n">
+        <v>157</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1798239848.452879</v>
+      </c>
+      <c r="G19" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="H19" t="n">
+        <v>152</v>
+      </c>
+      <c r="I19" t="n">
+        <v>1.032394736842105</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0.7875428534094362</v>
+      </c>
+      <c r="K19" t="n">
+        <v>17.19707048043289</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>44314.375</v>
+      </c>
+      <c r="B20" t="n">
+        <v>156</v>
+      </c>
+      <c r="C20" t="n">
+        <v>162</v>
+      </c>
+      <c r="D20" t="n">
+        <v>137</v>
+      </c>
+      <c r="E20" t="n">
+        <v>147</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1694899213.748643</v>
+      </c>
+      <c r="G20" t="n">
+        <v>10</v>
+      </c>
+      <c r="H20" t="n">
+        <v>152.1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.9659694280078897</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0.7607423196396144</v>
+      </c>
+      <c r="K20" t="n">
+        <v>20.01490153460616</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>44315.375</v>
+      </c>
+      <c r="B21" t="n">
+        <v>147</v>
+      </c>
+      <c r="C21" t="n">
+        <v>168</v>
+      </c>
+      <c r="D21" t="n">
+        <v>142</v>
+      </c>
+      <c r="E21" t="n">
+        <v>155</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2294318512.440846</v>
+      </c>
+      <c r="G21" t="n">
+        <v>10.4</v>
+      </c>
+      <c r="H21" t="n">
+        <v>151.8</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1.020580368906456</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0.7763986772205506</v>
+      </c>
+      <c r="K21" t="n">
+        <v>18.36877870116916</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>44316.375</v>
+      </c>
+      <c r="B22" t="n">
+        <v>155</v>
+      </c>
+      <c r="C22" t="n">
+        <v>159</v>
+      </c>
+      <c r="D22" t="n">
+        <v>151</v>
+      </c>
+      <c r="E22" t="n">
+        <v>155</v>
+      </c>
+      <c r="F22" t="n">
+        <v>285994081.0396068</v>
+      </c>
+      <c r="G22" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="H22" t="n">
+        <v>155</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.9995000000000001</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0.7760104778819403</v>
+      </c>
+      <c r="K22" t="n">
+        <v>18.40959431181857</v>
       </c>
     </row>
   </sheetData>
